--- a/data/mapython/sportscheck_manually_correction.xlsx
+++ b/data/mapython/sportscheck_manually_correction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="0" windowWidth="23016" windowHeight="9576"/>
+    <workbookView xWindow="2112" yWindow="0" windowWidth="23016" windowHeight="9576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="70">
   <si>
     <t>class</t>
   </si>
@@ -110,15 +110,9 @@
     <t>mixed</t>
   </si>
   <si>
-    <t>f135-200, 7-&gt;6; after f363, remove all 6</t>
-  </si>
-  <si>
     <t>dropped bcs of mix with 206</t>
   </si>
   <si>
-    <t>replace to 18</t>
-  </si>
-  <si>
     <t>with bike 84</t>
   </si>
   <si>
@@ -134,12 +128,6 @@
     <t>with bike 85</t>
   </si>
   <si>
-    <t>after f550 , 13-&gt;213; after f1158, 13-&gt;313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   after f1830, 28-&gt; 48</t>
-  </si>
-  <si>
     <t>106 starts from f1168; after f1174, 106-&gt;109</t>
   </si>
   <si>
@@ -171,13 +159,109 @@
   </si>
   <si>
     <t>all 101-&gt;99</t>
+  </si>
+  <si>
+    <t>after f1190 , 27-&gt;227; after f1557, 227-&gt;34</t>
+  </si>
+  <si>
+    <t>b/ex</t>
+  </si>
+  <si>
+    <t>96; from f1887-2449,delete 45(or 96)</t>
+  </si>
+  <si>
+    <t>r/b</t>
+  </si>
+  <si>
+    <t>after f2810, delete 64; then all 64-&gt;51</t>
+  </si>
+  <si>
+    <t>after f2578, 54-&gt;254</t>
+  </si>
+  <si>
+    <t>after f1830, 28-&gt; 228</t>
+  </si>
+  <si>
+    <t>only f2351-2614, 48; f2615-f2846, 48-&gt;248, after f2846, delete 48</t>
+  </si>
+  <si>
+    <t>from f2487-f2556, 51-&gt;251</t>
+  </si>
+  <si>
+    <t>f2557</t>
+  </si>
+  <si>
+    <t>mixed with bike 95</t>
+  </si>
+  <si>
+    <t>all 62-&gt;67</t>
+  </si>
+  <si>
+    <t>after f2659, 58-&gt;258</t>
+  </si>
+  <si>
+    <t>all 59-&gt;58</t>
+  </si>
+  <si>
+    <t>from f2550, 49&lt;-&gt;61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> after f363-f601, 6-&gt;206;f602-end 6-&gt;306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7-&gt;6;</t>
+  </si>
+  <si>
+    <t>f536-550, delete 13, after f550 , 13-&gt;213; after f1158, 13-&gt;313</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start from f1235, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f1610-f1782, 30-&gt;27; delete after f1782</t>
+    </r>
+  </si>
+  <si>
+    <t>after f1557, 34-&gt;234</t>
+  </si>
+  <si>
+    <t>b/exchange</t>
+  </si>
+  <si>
+    <t>recap 39 from raw data to replace first half of 89</t>
+  </si>
+  <si>
+    <t>f135-200: need add 7 from old data then change to part of 6</t>
+  </si>
+  <si>
+    <t>as 90</t>
+  </si>
+  <si>
+    <t>with friend 38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +294,29 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +336,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,7 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +451,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -620,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +859,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
@@ -741,7 +874,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -752,7 +885,7 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="15">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
@@ -761,32 +894,38 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="15">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="15">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -800,7 +939,7 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="15">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
@@ -809,7 +948,7 @@
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="15">
         <v>10</v>
       </c>
       <c r="C12" s="2"/>
@@ -818,7 +957,7 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="15">
         <v>11</v>
       </c>
       <c r="C13" s="2"/>
@@ -830,7 +969,7 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="15">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -847,14 +986,14 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="15">
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -864,7 +1003,7 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="15">
         <v>14</v>
       </c>
       <c r="C16" s="2"/>
@@ -873,7 +1012,7 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="15">
         <v>15</v>
       </c>
       <c r="C17" s="2"/>
@@ -882,7 +1021,7 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="15">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -893,7 +1032,7 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="15">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -907,7 +1046,7 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="15">
         <v>18</v>
       </c>
       <c r="C20" s="2"/>
@@ -946,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,12 +1116,7 @@
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1004,18 +1138,21 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="15">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
+      <c r="C29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,15 +1180,21 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="14">
         <v>30</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,8 +1238,12 @@
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -1144,24 +1291,24 @@
         <v>38</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="14">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="12">
-        <v>89</v>
+      <c r="C41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,16 +1342,18 @@
       <c r="B44" s="1">
         <v>42</v>
       </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="15">
         <v>43</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -1213,20 +1362,21 @@
       <c r="B46" s="1">
         <v>44</v>
       </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="18">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="12">
-        <v>96</v>
+      <c r="D47" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,6 +1386,9 @@
       <c r="B48" s="1">
         <v>46</v>
       </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,7 +1410,12 @@
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="C50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -1266,7 +1424,12 @@
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="C51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -1275,7 +1438,12 @@
       <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="C52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -1284,7 +1452,12 @@
       <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="C53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -1293,6 +1466,9 @@
       <c r="B54" s="1">
         <v>52</v>
       </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,7 +1492,12 @@
       <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="C56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -1325,6 +1506,7 @@
       <c r="B57" s="1">
         <v>55</v>
       </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,6 +1516,9 @@
       <c r="B58" s="1">
         <v>56</v>
       </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1343,7 +1528,12 @@
       <c r="B59" s="1">
         <v>57</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="C59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -1352,7 +1542,12 @@
       <c r="B60" s="1">
         <v>58</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="C60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -1361,7 +1556,12 @@
       <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="C61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -1370,6 +1570,9 @@
       <c r="B62" s="1">
         <v>60</v>
       </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,7 +1582,12 @@
       <c r="B63" s="1">
         <v>61</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="C63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -1388,7 +1596,12 @@
       <c r="B64" s="1">
         <v>62</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="C64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -1397,6 +1610,7 @@
       <c r="B65" s="1">
         <v>63</v>
       </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1406,7 +1620,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="C66" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -1415,6 +1634,7 @@
       <c r="B67" s="1">
         <v>65</v>
       </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1424,6 +1644,9 @@
       <c r="B68" s="1">
         <v>66</v>
       </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,6 +1656,7 @@
       <c r="B69" s="1">
         <v>67</v>
       </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1442,6 +1666,7 @@
       <c r="B70" s="1">
         <v>68</v>
       </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,6 +1676,9 @@
       <c r="B71" s="1">
         <v>69</v>
       </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,6 +1702,9 @@
       <c r="B73" s="1">
         <v>71</v>
       </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1483,6 +1714,9 @@
       <c r="B74" s="1">
         <v>72</v>
       </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,6 +1726,9 @@
       <c r="B75" s="1">
         <v>73</v>
       </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,6 +1738,9 @@
       <c r="B76" s="1">
         <v>74</v>
       </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1510,6 +1750,9 @@
       <c r="B77" s="1">
         <v>75</v>
       </c>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,6 +1762,9 @@
       <c r="B78" s="1">
         <v>76</v>
       </c>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,6 +1774,9 @@
       <c r="B79" s="1">
         <v>77</v>
       </c>
+      <c r="C79" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,6 +1786,9 @@
       <c r="B80" s="1">
         <v>78</v>
       </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1568,6 +1820,9 @@
       <c r="B83" s="1">
         <v>81</v>
       </c>
+      <c r="C83" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1623,6 +1878,12 @@
       <c r="B88" s="1">
         <v>86</v>
       </c>
+      <c r="C88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
@@ -1663,6 +1924,9 @@
       <c r="C92" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -1681,7 +1945,10 @@
         <v>92</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1692,7 +1959,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,7 +1971,7 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,7 +1983,7 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,7 +1995,7 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,7 +2009,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,7 +2041,7 @@
       </c>
       <c r="C102" s="7"/>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,7 +2055,7 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -1843,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -1899,10 +2166,10 @@
         <v>112</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D114" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,5 +2196,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/mapython/sportscheck_manually_correction.xlsx
+++ b/data/mapython/sportscheck_manually_correction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="0" windowWidth="23016" windowHeight="9576"/>
+    <workbookView xWindow="3168" yWindow="0" windowWidth="23016" windowHeight="9576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="71">
   <si>
     <t>class</t>
   </si>
@@ -116,9 +116,6 @@
     <t>with bike 84</t>
   </si>
   <si>
-    <t>change all 105,106(before f1167) -&gt; 103</t>
-  </si>
-  <si>
     <t>change to bike, id-&gt;83</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>with bike 85</t>
   </si>
   <si>
-    <t>106 starts from f1168; after f1174, 106-&gt;109</t>
-  </si>
-  <si>
     <t>cannot find 112</t>
   </si>
   <si>
@@ -146,18 +140,12 @@
     <t>with 45</t>
   </si>
   <si>
-    <t>replace bike 97</t>
-  </si>
-  <si>
     <t>by 70</t>
   </si>
   <si>
     <t>???</t>
   </si>
   <si>
-    <t>from f544, no 100. after f544, 100-&gt;103</t>
-  </si>
-  <si>
     <t>all 101-&gt;99</t>
   </si>
   <si>
@@ -167,30 +155,18 @@
     <t>b/ex</t>
   </si>
   <si>
-    <t>96; from f1887-2449,delete 45(or 96)</t>
-  </si>
-  <si>
     <t>r/b</t>
   </si>
   <si>
     <t>after f2810, delete 64; then all 64-&gt;51</t>
   </si>
   <si>
-    <t>after f2578, 54-&gt;254</t>
-  </si>
-  <si>
     <t>after f1830, 28-&gt; 228</t>
   </si>
   <si>
     <t>only f2351-2614, 48; f2615-f2846, 48-&gt;248, after f2846, delete 48</t>
   </si>
   <si>
-    <t>from f2487-f2556, 51-&gt;251</t>
-  </si>
-  <si>
-    <t>f2557</t>
-  </si>
-  <si>
     <t>mixed with bike 95</t>
   </si>
   <si>
@@ -198,9 +174,6 @@
   </si>
   <si>
     <t>after f2659, 58-&gt;258</t>
-  </si>
-  <si>
-    <t>all 59-&gt;58</t>
   </si>
   <si>
     <t>from f2550, 49&lt;-&gt;61</t>
@@ -255,6 +228,36 @@
   </si>
   <si>
     <t>with friend 38</t>
+  </si>
+  <si>
+    <t>96; from f2463-2535</t>
+  </si>
+  <si>
+    <t>f2557, after 50-&gt;250</t>
+  </si>
+  <si>
+    <t>delete f2546-f2586, afterwards 51-&gt;251</t>
+  </si>
+  <si>
+    <t>delete f2559-f2602, 54-&gt;254</t>
+  </si>
+  <si>
+    <t>replace bike 97/98</t>
+  </si>
+  <si>
+    <t>from f544, no 100. after f593, 100-&gt;103</t>
+  </si>
+  <si>
+    <t>delete f872- change all 105,106(before f1167) -&gt; 103</t>
+  </si>
+  <si>
+    <t>106 starts from f1168; after f1646, 106-&gt;109</t>
+  </si>
+  <si>
+    <t>105-&gt;103, need recap 105 to data</t>
+  </si>
+  <si>
+    <t>b/r</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,12 +344,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,9 +462,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -753,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -911,14 +905,14 @@
       <c r="B9" s="15">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
+      <c r="C9" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -993,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1152,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1166,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,7 +1174,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1191,10 +1185,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1291,10 +1285,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1308,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,14 +1363,14 @@
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="15">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1442,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1546,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1556,12 +1550,10 @@
       <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -1586,7 +1578,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,10 +1613,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1692,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1821,7 +1813,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -1850,7 +1842,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1948,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1959,7 +1951,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1971,7 +1963,7 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1983,7 +1975,7 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1995,7 +1987,7 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,7 +2001,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2020,7 +2012,10 @@
         <v>98</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2041,7 +2036,7 @@
       </c>
       <c r="C102" s="7"/>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2055,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2078,7 +2073,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2097,7 +2092,12 @@
       <c r="B107" s="1">
         <v>105</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
@@ -2110,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2166,10 +2166,10 @@
         <v>112</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/mapython/sportscheck_manually_correction.xlsx
+++ b/data/mapython/sportscheck_manually_correction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="0" windowWidth="23016" windowHeight="9576"/>
+    <workbookView xWindow="4224" yWindow="0" windowWidth="23016" windowHeight="9576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
   <si>
     <t>class</t>
   </si>
@@ -748,7 +748,7 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1110,9 @@
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
